--- a/Intermediate-Data-Science-master/Inferential Statistics/human_temp/data/human_body_temperature.xlsx
+++ b/Intermediate-Data-Science-master/Inferential Statistics/human_temp/data/human_body_temperature.xlsx
@@ -2,28 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venkata_r_bandaru\Desktop\Springboard\Intermediate-Data-Science-master\Inferential Statistics\human_temp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5076"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5076"/>
   </bookViews>
   <sheets>
     <sheet name="human_body_temperature" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">human_body_temperature!$A$1:$H$131</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
   <si>
     <t>temperature</t>
   </si>
@@ -77,6 +80,21 @@
   </si>
   <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>MOE</t>
+  </si>
+  <si>
+    <t>Abnormal with Std_ Deviation</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -1750,10 +1768,14 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1768,6 +1790,16 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1">
+        <f>MAX(A2:A131)</f>
+        <v>100.8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -1783,12 +1815,16 @@
         <f>OR(A2&lt;98.08,A2&gt;98.41)</f>
         <v>1</v>
       </c>
+      <c r="E2" t="b">
+        <f>OR(A2&lt;$G$12,A2&gt;$H$12)</f>
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(A2:A131)</f>
-        <v>98.249230769230778</v>
+        <f>MIN(A2:A131)</f>
+        <v>96.3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1805,12 +1841,16 @@
         <f t="shared" ref="D3:D66" si="0">OR(A3&lt;98.08,A3&gt;98.41)</f>
         <v>0</v>
       </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E66" si="1">OR(A3&lt;$G$12,A3&gt;$H$12)</f>
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <f>STDEV(A2:A131)</f>
-        <v>0.7331831580389454</v>
+        <f>AVERAGE(A2:A131)</f>
+        <v>98.249230769230778</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1827,12 +1867,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <f>COUNT(A2:A131)</f>
-        <v>130</v>
+        <f>STDEV(A2:A131)</f>
+        <v>0.7331831580389454</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1849,12 +1893,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <f>G3/SQRT(G4-1)</f>
-        <v>6.4553177599807263E-2</v>
+        <f>COUNT(A2:A131)</f>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1871,11 +1919,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <f>G4/SQRT(G5)</f>
+        <v>6.430441683789101E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1892,11 +1945,15 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>2.61</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1913,6 +1970,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1928,16 +1995,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <f>G2-G7*G5</f>
-        <v>98.080746975695277</v>
-      </c>
-      <c r="H9">
-        <f>G2+G7*G5</f>
-        <v>98.417714562766278</v>
+        <f>G6*G8</f>
+        <v>0.16783452794689552</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1954,6 +2021,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <f>G3-G8*G6</f>
+        <v>98.081396241283883</v>
+      </c>
+      <c r="H10">
+        <f>G3+G8*G6</f>
+        <v>98.417065297177672</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1969,6 +2051,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f>MEDIAN(A:A)</f>
+        <v>98.3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -1984,6 +2077,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>G10-1.5*G4</f>
+        <v>96.981621504225458</v>
+      </c>
+      <c r="H12">
+        <f>H10+1.5*G4</f>
+        <v>99.516840034236097</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1999,6 +2104,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2014,6 +2123,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="E14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2029,6 +2142,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="E15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2044,8 +2161,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>98.8</v>
       </c>
@@ -2059,8 +2180,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>98.3</v>
       </c>
@@ -2074,8 +2199,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>98.2</v>
       </c>
@@ -2089,8 +2218,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>97.2</v>
       </c>
@@ -2104,8 +2237,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>99.4</v>
       </c>
@@ -2119,8 +2256,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>98.3</v>
       </c>
@@ -2134,8 +2275,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>98.2</v>
       </c>
@@ -2149,8 +2294,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>98.6</v>
       </c>
@@ -2164,8 +2313,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>98.4</v>
       </c>
@@ -2179,8 +2332,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>97.8</v>
       </c>
@@ -2194,8 +2351,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>98</v>
       </c>
@@ -2209,8 +2370,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>97.8</v>
       </c>
@@ -2224,8 +2389,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>98.2</v>
       </c>
@@ -2239,8 +2408,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>98.4</v>
       </c>
@@ -2254,8 +2427,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>98.1</v>
       </c>
@@ -2269,8 +2446,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>98.3</v>
       </c>
@@ -2284,8 +2465,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>97.6</v>
       </c>
@@ -2299,8 +2484,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>98.5</v>
       </c>
@@ -2314,8 +2503,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>98.6</v>
       </c>
@@ -2329,8 +2522,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>99.3</v>
       </c>
@@ -2344,8 +2541,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>99.5</v>
       </c>
@@ -2359,8 +2560,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>99.1</v>
       </c>
@@ -2374,8 +2579,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>98.3</v>
       </c>
@@ -2389,8 +2598,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>97.9</v>
       </c>
@@ -2404,8 +2617,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>96.4</v>
       </c>
@@ -2419,8 +2636,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>98.4</v>
       </c>
@@ -2434,8 +2655,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>98.4</v>
       </c>
@@ -2449,8 +2674,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>96.9</v>
       </c>
@@ -2464,8 +2693,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>97.2</v>
       </c>
@@ -2479,8 +2712,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>99</v>
       </c>
@@ -2494,8 +2731,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>97.9</v>
       </c>
@@ -2509,8 +2750,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>97.4</v>
       </c>
@@ -2524,8 +2769,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>97.4</v>
       </c>
@@ -2539,8 +2788,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>97.9</v>
       </c>
@@ -2554,8 +2807,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>97.1</v>
       </c>
@@ -2569,8 +2826,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>98.9</v>
       </c>
@@ -2584,8 +2845,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>98.3</v>
       </c>
@@ -2599,8 +2864,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>98.5</v>
       </c>
@@ -2614,8 +2883,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>98.6</v>
       </c>
@@ -2629,8 +2902,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>98.2</v>
       </c>
@@ -2644,8 +2921,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>98.6</v>
       </c>
@@ -2659,8 +2940,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>98.8</v>
       </c>
@@ -2674,8 +2959,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>98.2</v>
       </c>
@@ -2689,8 +2978,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>98.2</v>
       </c>
@@ -2704,8 +2997,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>97.6</v>
       </c>
@@ -2719,8 +3016,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>99.1</v>
       </c>
@@ -2734,8 +3035,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>98.4</v>
       </c>
@@ -2749,8 +3054,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>98.2</v>
       </c>
@@ -2764,8 +3073,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>98.6</v>
       </c>
@@ -2779,8 +3092,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>98.7</v>
       </c>
@@ -2794,8 +3111,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>97.4</v>
       </c>
@@ -2806,11 +3127,15 @@
         <v>70</v>
       </c>
       <c r="D67" t="b">
-        <f t="shared" ref="D67:D130" si="1">OR(A67&lt;98.08,A67&gt;98.41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D67:D130" si="2">OR(A67&lt;98.08,A67&gt;98.41)</f>
+        <v>1</v>
+      </c>
+      <c r="E67" t="b">
+        <f t="shared" ref="E67:E130" si="3">OR(A67&lt;$G$12,A67&gt;$H$12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>97.4</v>
       </c>
@@ -2821,11 +3146,15 @@
         <v>57</v>
       </c>
       <c r="D68" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E68" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>98.6</v>
       </c>
@@ -2836,11 +3165,15 @@
         <v>77</v>
       </c>
       <c r="D69" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E69" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>98.7</v>
       </c>
@@ -2851,11 +3184,15 @@
         <v>82</v>
       </c>
       <c r="D70" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E70" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>98.9</v>
       </c>
@@ -2866,11 +3203,15 @@
         <v>80</v>
       </c>
       <c r="D71" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E71" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>98.1</v>
       </c>
@@ -2881,11 +3222,15 @@
         <v>81</v>
       </c>
       <c r="D72" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E72" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>97.7</v>
       </c>
@@ -2896,11 +3241,15 @@
         <v>61</v>
       </c>
       <c r="D73" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>98</v>
       </c>
@@ -2911,11 +3260,15 @@
         <v>78</v>
       </c>
       <c r="D74" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>98.8</v>
       </c>
@@ -2926,11 +3279,15 @@
         <v>81</v>
       </c>
       <c r="D75" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>99</v>
       </c>
@@ -2941,11 +3298,15 @@
         <v>75</v>
       </c>
       <c r="D76" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>98.8</v>
       </c>
@@ -2956,11 +3317,15 @@
         <v>78</v>
       </c>
       <c r="D77" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>98</v>
       </c>
@@ -2971,11 +3336,15 @@
         <v>76</v>
       </c>
       <c r="D78" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>98.4</v>
       </c>
@@ -2986,11 +3355,15 @@
         <v>70</v>
       </c>
       <c r="D79" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E79" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>97.4</v>
       </c>
@@ -3001,11 +3374,15 @@
         <v>78</v>
       </c>
       <c r="D80" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>97.6</v>
       </c>
@@ -3016,11 +3393,15 @@
         <v>74</v>
       </c>
       <c r="D81" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>98.8</v>
       </c>
@@ -3031,11 +3412,15 @@
         <v>73</v>
       </c>
       <c r="D82" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>98</v>
       </c>
@@ -3046,11 +3431,15 @@
         <v>67</v>
       </c>
       <c r="D83" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>97.5</v>
       </c>
@@ -3061,11 +3450,15 @@
         <v>70</v>
       </c>
       <c r="D84" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>99.2</v>
       </c>
@@ -3076,11 +3469,15 @@
         <v>77</v>
       </c>
       <c r="D85" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>98.6</v>
       </c>
@@ -3091,11 +3488,15 @@
         <v>85</v>
       </c>
       <c r="D86" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>97.1</v>
       </c>
@@ -3106,11 +3507,15 @@
         <v>75</v>
       </c>
       <c r="D87" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>98.6</v>
       </c>
@@ -3121,11 +3526,15 @@
         <v>77</v>
       </c>
       <c r="D88" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>98</v>
       </c>
@@ -3136,11 +3545,15 @@
         <v>78</v>
       </c>
       <c r="D89" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>98.7</v>
       </c>
@@ -3151,11 +3564,15 @@
         <v>73</v>
       </c>
       <c r="D90" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>98.1</v>
       </c>
@@ -3166,11 +3583,15 @@
         <v>73</v>
       </c>
       <c r="D91" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>97.8</v>
       </c>
@@ -3181,11 +3602,15 @@
         <v>74</v>
       </c>
       <c r="D92" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E92" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>100</v>
       </c>
@@ -3196,11 +3621,15 @@
         <v>78</v>
       </c>
       <c r="D93" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>98.8</v>
       </c>
@@ -3211,11 +3640,15 @@
         <v>84</v>
       </c>
       <c r="D94" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E94" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>97.1</v>
       </c>
@@ -3226,11 +3659,15 @@
         <v>73</v>
       </c>
       <c r="D95" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E95" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>97.8</v>
       </c>
@@ -3241,11 +3678,15 @@
         <v>58</v>
       </c>
       <c r="D96" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E96" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96.8</v>
       </c>
@@ -3256,11 +3697,15 @@
         <v>75</v>
       </c>
       <c r="D97" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>99.9</v>
       </c>
@@ -3271,11 +3716,15 @@
         <v>79</v>
       </c>
       <c r="D98" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98.7</v>
       </c>
@@ -3286,11 +3735,15 @@
         <v>64</v>
       </c>
       <c r="D99" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98.8</v>
       </c>
@@ -3301,11 +3754,15 @@
         <v>64</v>
       </c>
       <c r="D100" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -3316,11 +3773,15 @@
         <v>74</v>
       </c>
       <c r="D101" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -3331,11 +3792,15 @@
         <v>81</v>
       </c>
       <c r="D102" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>98.5</v>
       </c>
@@ -3346,11 +3811,15 @@
         <v>68</v>
       </c>
       <c r="D103" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>98</v>
       </c>
@@ -3361,11 +3830,15 @@
         <v>78</v>
       </c>
       <c r="D104" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E104" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>99.4</v>
       </c>
@@ -3376,11 +3849,15 @@
         <v>77</v>
       </c>
       <c r="D105" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E105" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>97.6</v>
       </c>
@@ -3391,11 +3868,15 @@
         <v>69</v>
       </c>
       <c r="D106" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>96.7</v>
       </c>
@@ -3406,11 +3887,15 @@
         <v>71</v>
       </c>
       <c r="D107" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E107" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>97</v>
       </c>
@@ -3421,11 +3906,15 @@
         <v>80</v>
       </c>
       <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E108" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>98.6</v>
       </c>
@@ -3436,11 +3925,15 @@
         <v>66</v>
       </c>
       <c r="D109" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E109" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>98.7</v>
       </c>
@@ -3451,11 +3944,15 @@
         <v>72</v>
       </c>
       <c r="D110" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E110" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>97.3</v>
       </c>
@@ -3466,11 +3963,15 @@
         <v>69</v>
       </c>
       <c r="D111" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E111" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>98.8</v>
       </c>
@@ -3481,11 +3982,15 @@
         <v>69</v>
       </c>
       <c r="D112" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>98</v>
       </c>
@@ -3496,11 +4001,15 @@
         <v>89</v>
       </c>
       <c r="D113" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E113" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>98.2</v>
       </c>
@@ -3511,11 +4020,15 @@
         <v>64</v>
       </c>
       <c r="D114" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E114" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>99.1</v>
       </c>
@@ -3526,11 +4039,15 @@
         <v>74</v>
       </c>
       <c r="D115" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E115" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>99</v>
       </c>
@@ -3541,11 +4058,15 @@
         <v>79</v>
       </c>
       <c r="D116" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E116" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>98</v>
       </c>
@@ -3556,11 +4077,15 @@
         <v>64</v>
       </c>
       <c r="D117" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E117" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>100.8</v>
       </c>
@@ -3571,11 +4096,15 @@
         <v>77</v>
       </c>
       <c r="D118" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E118" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>97.8</v>
       </c>
@@ -3586,11 +4115,15 @@
         <v>71</v>
       </c>
       <c r="D119" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>98.7</v>
       </c>
@@ -3601,11 +4134,15 @@
         <v>78</v>
       </c>
       <c r="D120" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E120" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>98.4</v>
       </c>
@@ -3616,11 +4153,15 @@
         <v>74</v>
       </c>
       <c r="D121" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E121" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>97.7</v>
       </c>
@@ -3631,11 +4172,15 @@
         <v>84</v>
       </c>
       <c r="D122" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E122" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>97.9</v>
       </c>
@@ -3646,11 +4191,15 @@
         <v>68</v>
       </c>
       <c r="D123" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E123" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>99</v>
       </c>
@@ -3661,11 +4210,15 @@
         <v>81</v>
       </c>
       <c r="D124" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E124" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>97.2</v>
       </c>
@@ -3676,11 +4229,15 @@
         <v>66</v>
       </c>
       <c r="D125" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E125" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>97.5</v>
       </c>
@@ -3691,11 +4248,15 @@
         <v>75</v>
       </c>
       <c r="D126" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E126" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>96.3</v>
       </c>
@@ -3706,11 +4267,15 @@
         <v>70</v>
       </c>
       <c r="D127" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E127" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>97.7</v>
       </c>
@@ -3721,11 +4286,15 @@
         <v>77</v>
       </c>
       <c r="D128" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E128" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>98.2</v>
       </c>
@@ -3736,11 +4305,15 @@
         <v>73</v>
       </c>
       <c r="D129" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E129" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>97.9</v>
       </c>
@@ -3751,11 +4324,15 @@
         <v>72</v>
       </c>
       <c r="D130" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E130" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>98.7</v>
       </c>
@@ -3766,11 +4343,16 @@
         <v>59</v>
       </c>
       <c r="D131" t="b">
-        <f t="shared" ref="D131" si="2">OR(A131&lt;98.08,A131&gt;98.41)</f>
-        <v>1</v>
+        <f t="shared" ref="D131" si="4">OR(A131&lt;98.08,A131&gt;98.41)</f>
+        <v>1</v>
+      </c>
+      <c r="E131" t="b">
+        <f t="shared" ref="E131" si="5">OR(A131&lt;$G$12,A131&gt;$H$12)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
